--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_30pct/Tests_DM/dm_completo_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_30pct/Tests_DM/dm_completo_Lineal_Estacionario_ARMA.xlsx
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -491,7 +491,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -509,7 +509,7 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -570,7 +570,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -602,10 +602,10 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>-1</v>
@@ -628,10 +628,10 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -654,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -683,7 +683,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>-1</v>
@@ -792,28 +792,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>2.29995709155606E-05</v>
+        <v>0.002936882530722773</v>
       </c>
       <c r="D2">
-        <v>0.01492888843424178</v>
+        <v>0.06332105528962573</v>
       </c>
       <c r="E2">
-        <v>0.8677180755648628</v>
+        <v>0.8775631494148448</v>
       </c>
       <c r="F2">
-        <v>0.005493561549060111</v>
+        <v>0.03580405251840779</v>
       </c>
       <c r="G2">
-        <v>0.005604780424963263</v>
+        <v>0.03976284204408098</v>
       </c>
       <c r="H2">
-        <v>0.004934836573756707</v>
+        <v>0.05871423872634551</v>
       </c>
       <c r="I2">
-        <v>1.361610820693748E-05</v>
+        <v>0.00359914425769392</v>
       </c>
       <c r="J2">
-        <v>0.0009543583812872125</v>
+        <v>0.00158499396387457</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -821,31 +821,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.29995709155606E-05</v>
+        <v>0.002936882530722773</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2.099797913324153E-08</v>
       </c>
       <c r="E3">
-        <v>2.213703023112856E-07</v>
+        <v>0.0001914032912220254</v>
       </c>
       <c r="F3">
-        <v>2.277205615852651E-06</v>
+        <v>0.0008237152379177992</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>5.572955430466209E-10</v>
       </c>
       <c r="H3">
-        <v>0.000928269458951636</v>
+        <v>0.007935123025961444</v>
       </c>
       <c r="I3">
-        <v>0.05640892294870792</v>
+        <v>0.09576682928197755</v>
       </c>
       <c r="J3">
-        <v>2.220446049250313E-16</v>
+        <v>1.034986377601577E-05</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -853,31 +853,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.01492888843424178</v>
+        <v>0.06332105528962573</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2.099797913324153E-08</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.002846266344803228</v>
+        <v>0.01133220103296262</v>
       </c>
       <c r="F4">
-        <v>0.003611014044401006</v>
+        <v>0.02238678474723477</v>
       </c>
       <c r="G4">
-        <v>0.04058096103940989</v>
+        <v>0.02270659363078975</v>
       </c>
       <c r="H4">
-        <v>0.872524690506904</v>
+        <v>0.8864391521744979</v>
       </c>
       <c r="I4">
-        <v>3.33048233880362E-07</v>
+        <v>0.000121154748361052</v>
       </c>
       <c r="J4">
-        <v>5.878630915390204E-12</v>
+        <v>0.0001509441757594487</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -885,31 +885,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8677180755648628</v>
+        <v>0.8775631494148448</v>
       </c>
       <c r="C5">
-        <v>2.213703023112856E-07</v>
+        <v>0.0001914032912220254</v>
       </c>
       <c r="D5">
-        <v>0.002846266344803228</v>
+        <v>0.01133220103296262</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.8651158749744154</v>
+        <v>0.8729394298191744</v>
       </c>
       <c r="G5">
-        <v>0.0006695507736051987</v>
+        <v>0.005538744108620763</v>
       </c>
       <c r="H5">
-        <v>0.008767709015735869</v>
+        <v>0.02083583715337456</v>
       </c>
       <c r="I5">
-        <v>5.019331738465027E-06</v>
+        <v>0.0006645431671341573</v>
       </c>
       <c r="J5">
-        <v>0.01079810019199257</v>
+        <v>0.02150528511126648</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -917,31 +917,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.005493561549060111</v>
+        <v>0.03580405251840779</v>
       </c>
       <c r="C6">
-        <v>2.277205615852651E-06</v>
+        <v>0.0008237152379177992</v>
       </c>
       <c r="D6">
-        <v>0.003611014044401006</v>
+        <v>0.02238678474723477</v>
       </c>
       <c r="E6">
-        <v>0.8651158749744154</v>
+        <v>0.8729394298191744</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.001098175503443599</v>
+        <v>0.01374609340714184</v>
       </c>
       <c r="H6">
-        <v>0.001103283591538329</v>
+        <v>0.02662345360733487</v>
       </c>
       <c r="I6">
-        <v>1.067128670761974E-06</v>
+        <v>0.001052419139082161</v>
       </c>
       <c r="J6">
-        <v>0.005328560806489246</v>
+        <v>0.004515794454904132</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -949,31 +949,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.005604780424963263</v>
+        <v>0.03976284204408098</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>5.572955430466209E-10</v>
       </c>
       <c r="D7">
-        <v>0.04058096103940989</v>
+        <v>0.02270659363078975</v>
       </c>
       <c r="E7">
-        <v>0.0006695507736051987</v>
+        <v>0.005538744108620763</v>
       </c>
       <c r="F7">
-        <v>0.001098175503443599</v>
+        <v>0.01374609340714184</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.5977813712172975</v>
+        <v>0.6400498896217632</v>
       </c>
       <c r="I7">
-        <v>5.628568731097516E-07</v>
+        <v>0.0003714665849312571</v>
       </c>
       <c r="J7">
-        <v>1.234345958778249E-12</v>
+        <v>0.0001017066779649412</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -981,31 +981,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.004934836573756707</v>
+        <v>0.05871423872634551</v>
       </c>
       <c r="C8">
-        <v>0.000928269458951636</v>
+        <v>0.007935123025961444</v>
       </c>
       <c r="D8">
-        <v>0.872524690506904</v>
+        <v>0.8864391521744979</v>
       </c>
       <c r="E8">
-        <v>0.008767709015735869</v>
+        <v>0.02083583715337456</v>
       </c>
       <c r="F8">
-        <v>0.001103283591538329</v>
+        <v>0.02662345360733487</v>
       </c>
       <c r="G8">
-        <v>0.5977813712172975</v>
+        <v>0.6400498896217632</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>3.251995011832598E-05</v>
+        <v>0.001749950845293613</v>
       </c>
       <c r="J8">
-        <v>2.55081733513407E-10</v>
+        <v>2.070888677252469E-05</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1013,31 +1013,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.361610820693748E-05</v>
+        <v>0.00359914425769392</v>
       </c>
       <c r="C9">
-        <v>0.05640892294870792</v>
+        <v>0.09576682928197755</v>
       </c>
       <c r="D9">
-        <v>3.33048233880362E-07</v>
+        <v>0.000121154748361052</v>
       </c>
       <c r="E9">
-        <v>5.019331738465027E-06</v>
+        <v>0.0006645431671341573</v>
       </c>
       <c r="F9">
-        <v>1.067128670761974E-06</v>
+        <v>0.001052419139082161</v>
       </c>
       <c r="G9">
-        <v>5.628568731097516E-07</v>
+        <v>0.0003714665849312571</v>
       </c>
       <c r="H9">
-        <v>3.251995011832598E-05</v>
+        <v>0.001749950845293613</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>3.546392238540363E-06</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1045,28 +1045,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0009543583812872125</v>
+        <v>0.00158499396387457</v>
       </c>
       <c r="C10">
-        <v>2.220446049250313E-16</v>
+        <v>1.034986377601577E-05</v>
       </c>
       <c r="D10">
-        <v>5.878630915390204E-12</v>
+        <v>0.0001509441757594487</v>
       </c>
       <c r="E10">
-        <v>0.01079810019199257</v>
+        <v>0.02150528511126648</v>
       </c>
       <c r="F10">
-        <v>0.005328560806489246</v>
+        <v>0.004515794454904132</v>
       </c>
       <c r="G10">
-        <v>1.234345958778249E-12</v>
+        <v>0.0001017066779649412</v>
       </c>
       <c r="H10">
-        <v>2.55081733513407E-10</v>
+        <v>2.070888677252469E-05</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.546392238540363E-06</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1122,28 +1122,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.275763998298409</v>
+        <v>3.593367205243904</v>
       </c>
       <c r="D2">
-        <v>2.44292720231528</v>
+        <v>2.016758463553398</v>
       </c>
       <c r="E2">
-        <v>-0.1666470720863194</v>
+        <v>-0.1569009666880324</v>
       </c>
       <c r="F2">
-        <v>-2.789245825813439</v>
+        <v>-2.322271272397697</v>
       </c>
       <c r="G2">
-        <v>2.782641540090542</v>
+        <v>2.266929464161431</v>
       </c>
       <c r="H2">
-        <v>2.824376669066992</v>
+        <v>2.057958695998135</v>
       </c>
       <c r="I2">
-        <v>4.395608850609015</v>
+        <v>3.490981334899089</v>
       </c>
       <c r="J2">
-        <v>-3.324306471972288</v>
+        <v>-3.90534497573406</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1151,31 +1151,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-4.275763998298409</v>
+        <v>-3.593367205243904</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-9.171141618621951</v>
+        <v>-11.26344311137905</v>
       </c>
       <c r="E3">
-        <v>-5.256656228901262</v>
+        <v>-5.008699651420917</v>
       </c>
       <c r="F3">
-        <v>-4.785341727469331</v>
+        <v>-4.240162507776755</v>
       </c>
       <c r="G3">
-        <v>-12.23691745519355</v>
+        <v>-14.89742288847779</v>
       </c>
       <c r="H3">
-        <v>-3.332207954310974</v>
+        <v>-3.093439107043003</v>
       </c>
       <c r="I3">
-        <v>-1.912494318706689</v>
+        <v>-1.786009743879899</v>
       </c>
       <c r="J3">
-        <v>-8.627664222985697</v>
+        <v>-6.685270321837844</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1183,31 +1183,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-2.44292720231528</v>
+        <v>-2.016758463553398</v>
       </c>
       <c r="C4">
-        <v>9.171141618621951</v>
+        <v>11.26344311137905</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-2.999367918503517</v>
+        <v>-2.913647615358556</v>
       </c>
       <c r="F4">
-        <v>-2.924733063396868</v>
+        <v>-2.566549154297781</v>
       </c>
       <c r="G4">
-        <v>2.053351481829233</v>
+        <v>2.559242055746841</v>
       </c>
       <c r="H4">
-        <v>0.1605383553740936</v>
+        <v>0.1454368416638841</v>
       </c>
       <c r="I4">
-        <v>5.176655734091266</v>
+        <v>5.257615734743519</v>
       </c>
       <c r="J4">
-        <v>-7.060112395616988</v>
+        <v>-5.137406866703439</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1215,31 +1215,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1666470720863194</v>
+        <v>0.1569009666880324</v>
       </c>
       <c r="C5">
-        <v>5.256656228901262</v>
+        <v>5.008699651420917</v>
       </c>
       <c r="D5">
-        <v>2.999367918503517</v>
+        <v>2.913647615358556</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.1699567904624609</v>
+        <v>-0.1628815469449042</v>
       </c>
       <c r="G5">
-        <v>3.424207007179772</v>
+        <v>3.2742659462375</v>
       </c>
       <c r="H5">
-        <v>2.631787956943406</v>
+        <v>2.603477106957986</v>
       </c>
       <c r="I5">
-        <v>4.616500740832358</v>
+        <v>4.351128903042748</v>
       </c>
       <c r="J5">
-        <v>-2.559178685269096</v>
+        <v>-2.587223037225212</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1247,31 +1247,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.789245825813439</v>
+        <v>2.322271272397697</v>
       </c>
       <c r="C6">
-        <v>4.785341727469331</v>
+        <v>4.240162507776755</v>
       </c>
       <c r="D6">
-        <v>2.924733063396868</v>
+        <v>2.566549154297781</v>
       </c>
       <c r="E6">
-        <v>0.1699567904624609</v>
+        <v>0.1628815469449042</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.284051121834583</v>
+        <v>2.815795919678759</v>
       </c>
       <c r="H6">
-        <v>3.282713294310506</v>
+        <v>2.476984868151872</v>
       </c>
       <c r="I6">
-        <v>4.942713814101477</v>
+        <v>4.114261134156737</v>
       </c>
       <c r="J6">
-        <v>-2.799270279195347</v>
+        <v>-3.376890254670051</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1279,31 +1279,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-2.782641540090542</v>
+        <v>-2.266929464161431</v>
       </c>
       <c r="C7">
-        <v>12.23691745519355</v>
+        <v>14.89742288847779</v>
       </c>
       <c r="D7">
-        <v>-2.053351481829233</v>
+        <v>-2.559242055746841</v>
       </c>
       <c r="E7">
-        <v>-3.424207007179772</v>
+        <v>-3.2742659462375</v>
       </c>
       <c r="F7">
-        <v>-3.284051121834583</v>
+        <v>-2.815795919678759</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>-0.5279458915089246</v>
+        <v>-0.4779683691676688</v>
       </c>
       <c r="I7">
-        <v>5.07234546170103</v>
+        <v>4.655109045308502</v>
       </c>
       <c r="J7">
-        <v>-7.29652757408241</v>
+        <v>-5.354049854343729</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1311,31 +1311,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-2.824376669066992</v>
+        <v>-2.057958695998135</v>
       </c>
       <c r="C8">
-        <v>3.332207954310974</v>
+        <v>3.093439107043003</v>
       </c>
       <c r="D8">
-        <v>-0.1605383553740936</v>
+        <v>-0.1454368416638841</v>
       </c>
       <c r="E8">
-        <v>-2.631787956943406</v>
+        <v>-2.603477106957986</v>
       </c>
       <c r="F8">
-        <v>-3.282713294310506</v>
+        <v>-2.476984868151872</v>
       </c>
       <c r="G8">
-        <v>0.5279458915089246</v>
+        <v>0.4779683691676688</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>4.195006528430711</v>
+        <v>3.855075240048511</v>
       </c>
       <c r="J8">
-        <v>-6.461685246794093</v>
+        <v>-6.265829665091724</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1343,31 +1343,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-4.395608850609015</v>
+        <v>-3.490981334899089</v>
       </c>
       <c r="C9">
-        <v>1.912494318706689</v>
+        <v>1.786009743879899</v>
       </c>
       <c r="D9">
-        <v>-5.176655734091266</v>
+        <v>-5.257615734743519</v>
       </c>
       <c r="E9">
-        <v>-4.616500740832358</v>
+        <v>-4.351128903042748</v>
       </c>
       <c r="F9">
-        <v>-4.942713814101477</v>
+        <v>-4.114261134156737</v>
       </c>
       <c r="G9">
-        <v>-5.07234546170103</v>
+        <v>-4.655109045308502</v>
       </c>
       <c r="H9">
-        <v>-4.195006528430711</v>
+        <v>-3.855075240048511</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-8.688858086238975</v>
+        <v>-7.363353033300883</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1375,28 +1375,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.324306471972288</v>
+        <v>3.90534497573406</v>
       </c>
       <c r="C10">
-        <v>8.627664222985697</v>
+        <v>6.685270321837844</v>
       </c>
       <c r="D10">
-        <v>7.060112395616988</v>
+        <v>5.137406866703439</v>
       </c>
       <c r="E10">
-        <v>2.559178685269096</v>
+        <v>2.587223037225212</v>
       </c>
       <c r="F10">
-        <v>2.799270279195347</v>
+        <v>3.376890254670051</v>
       </c>
       <c r="G10">
-        <v>7.29652757408241</v>
+        <v>5.354049854343729</v>
       </c>
       <c r="H10">
-        <v>6.461685246794093</v>
+        <v>6.265829665091724</v>
       </c>
       <c r="I10">
-        <v>8.688858086238975</v>
+        <v>7.363353033300883</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1440,16 +1440,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>87.5</v>
+        <v>62.5</v>
       </c>
       <c r="F2">
         <v>0.5443559566891729</v>
@@ -1460,16 +1460,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>87.5</v>
+        <v>62.5</v>
       </c>
       <c r="F3">
         <v>0.5863127492277844</v>
@@ -1477,47 +1477,47 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>37.5</v>
+        <v>12.5</v>
       </c>
       <c r="F4">
-        <v>0.6855824995996065</v>
+        <v>0.7088885641266924</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5">
-        <v>25</v>
+        <v>12.5</v>
       </c>
       <c r="F5">
-        <v>0.7088885641266924</v>
+        <v>0.6855824995996065</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1532,27 +1532,27 @@
         <v>12.5</v>
       </c>
       <c r="F6">
-        <v>0.901649210121425</v>
+        <v>0.7162379957586388</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7162379957586388</v>
+        <v>0.901649210121425</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>0</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_30pct/Tests_DM/dm_completo_Lineal_Estacionario_ARMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Proporcion_30pct/Tests_DM/dm_completo_Lineal_Estacionario_ARMA.xlsx
@@ -462,7 +462,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -509,10 +509,10 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>1</v>
@@ -532,7 +532,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>-1</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -561,7 +561,7 @@
         <v>-1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I5">
         <v>-1</v>
@@ -643,7 +643,7 @@
         <v>-1</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -654,13 +654,13 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -672,10 +672,10 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -683,10 +683,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -701,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -721,7 +721,7 @@
         <v>-1</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>-1</v>
@@ -792,28 +792,28 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.002936882530722773</v>
+        <v>0.0001908955766816156</v>
       </c>
       <c r="D2">
-        <v>0.06332105528962573</v>
+        <v>0.04719783250140841</v>
       </c>
       <c r="E2">
-        <v>0.8775631494148448</v>
+        <v>0.05805573771018557</v>
       </c>
       <c r="F2">
-        <v>0.03580405251840779</v>
+        <v>0.004155263560020828</v>
       </c>
       <c r="G2">
-        <v>0.03976284204408098</v>
+        <v>0.01447874497677271</v>
       </c>
       <c r="H2">
-        <v>0.05871423872634551</v>
+        <v>0.008709650152463944</v>
       </c>
       <c r="I2">
-        <v>0.00359914425769392</v>
+        <v>0.0002434536132336351</v>
       </c>
       <c r="J2">
-        <v>0.00158499396387457</v>
+        <v>0.1024612734459147</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -821,31 +821,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.002936882530722773</v>
+        <v>0.0001908955766816156</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>2.099797913324153E-08</v>
+        <v>2.722411185374085E-10</v>
       </c>
       <c r="E3">
-        <v>0.0001914032912220254</v>
+        <v>1.663800208717703E-10</v>
       </c>
       <c r="F3">
-        <v>0.0008237152379177992</v>
+        <v>5.774017055681924E-05</v>
       </c>
       <c r="G3">
-        <v>5.572955430466209E-10</v>
+        <v>1.778774905147884E-10</v>
       </c>
       <c r="H3">
-        <v>0.007935123025961444</v>
+        <v>5.33108890365952E-10</v>
       </c>
       <c r="I3">
-        <v>0.09576682928197755</v>
+        <v>9.131424224761986E-05</v>
       </c>
       <c r="J3">
-        <v>1.034986377601577E-05</v>
+        <v>6.779310295357277E-06</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -853,31 +853,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.06332105528962573</v>
+        <v>0.04719783250140841</v>
       </c>
       <c r="C4">
-        <v>2.099797913324153E-08</v>
+        <v>2.722411185374085E-10</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.01133220103296262</v>
+        <v>7.062179963046589E-07</v>
       </c>
       <c r="F4">
-        <v>0.02238678474723477</v>
+        <v>0.0147289191568063</v>
       </c>
       <c r="G4">
-        <v>0.02270659363078975</v>
+        <v>0.03967510839930855</v>
       </c>
       <c r="H4">
-        <v>0.8864391521744979</v>
+        <v>0.004364330651578374</v>
       </c>
       <c r="I4">
-        <v>0.000121154748361052</v>
+        <v>3.227613731837664E-10</v>
       </c>
       <c r="J4">
-        <v>0.0001509441757594487</v>
+        <v>0.04092007173307066</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -885,31 +885,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8775631494148448</v>
+        <v>0.05805573771018557</v>
       </c>
       <c r="C5">
-        <v>0.0001914032912220254</v>
+        <v>1.663800208717703E-10</v>
       </c>
       <c r="D5">
-        <v>0.01133220103296262</v>
+        <v>7.062179963046589E-07</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.8729394298191744</v>
+        <v>0.01844865081760938</v>
       </c>
       <c r="G5">
-        <v>0.005538744108620763</v>
+        <v>0.01237549314771114</v>
       </c>
       <c r="H5">
-        <v>0.02083583715337456</v>
+        <v>0.001112991304895283</v>
       </c>
       <c r="I5">
-        <v>0.0006645431671341573</v>
+        <v>1.628248647023156E-10</v>
       </c>
       <c r="J5">
-        <v>0.02150528511126648</v>
+        <v>0.06062406869800396</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -917,31 +917,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.03580405251840779</v>
+        <v>0.004155263560020828</v>
       </c>
       <c r="C6">
-        <v>0.0008237152379177992</v>
+        <v>5.774017055681924E-05</v>
       </c>
       <c r="D6">
-        <v>0.02238678474723477</v>
+        <v>0.0147289191568063</v>
       </c>
       <c r="E6">
-        <v>0.8729394298191744</v>
+        <v>0.01844865081760938</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.01374609340714184</v>
+        <v>0.003776728824374631</v>
       </c>
       <c r="H6">
-        <v>0.02662345360733487</v>
+        <v>0.002290341746070457</v>
       </c>
       <c r="I6">
-        <v>0.001052419139082161</v>
+        <v>6.531185730129785E-05</v>
       </c>
       <c r="J6">
-        <v>0.004515794454904132</v>
+        <v>0.01235027300395997</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -949,31 +949,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.03976284204408098</v>
+        <v>0.01447874497677271</v>
       </c>
       <c r="C7">
-        <v>5.572955430466209E-10</v>
+        <v>1.778774905147884E-10</v>
       </c>
       <c r="D7">
-        <v>0.02270659363078975</v>
+        <v>0.03967510839930855</v>
       </c>
       <c r="E7">
-        <v>0.005538744108620763</v>
+        <v>0.01237549314771114</v>
       </c>
       <c r="F7">
-        <v>0.01374609340714184</v>
+        <v>0.003776728824374631</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.6400498896217632</v>
+        <v>0.01095031130715651</v>
       </c>
       <c r="I7">
-        <v>0.0003714665849312571</v>
+        <v>2.219202599462733E-11</v>
       </c>
       <c r="J7">
-        <v>0.0001017066779649412</v>
+        <v>0.00556058598943876</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -981,31 +981,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.05871423872634551</v>
+        <v>0.008709650152463944</v>
       </c>
       <c r="C8">
-        <v>0.007935123025961444</v>
+        <v>5.33108890365952E-10</v>
       </c>
       <c r="D8">
-        <v>0.8864391521744979</v>
+        <v>0.004364330651578374</v>
       </c>
       <c r="E8">
-        <v>0.02083583715337456</v>
+        <v>0.001112991304895283</v>
       </c>
       <c r="F8">
-        <v>0.02662345360733487</v>
+        <v>0.002290341746070457</v>
       </c>
       <c r="G8">
-        <v>0.6400498896217632</v>
+        <v>0.01095031130715651</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>0.001749950845293613</v>
+        <v>8.475109503081057E-11</v>
       </c>
       <c r="J8">
-        <v>2.070888677252469E-05</v>
+        <v>0.002174255340146258</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1013,31 +1013,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.00359914425769392</v>
+        <v>0.0002434536132336351</v>
       </c>
       <c r="C9">
-        <v>0.09576682928197755</v>
+        <v>9.131424224761986E-05</v>
       </c>
       <c r="D9">
-        <v>0.000121154748361052</v>
+        <v>3.227613731837664E-10</v>
       </c>
       <c r="E9">
-        <v>0.0006645431671341573</v>
+        <v>1.628248647023156E-10</v>
       </c>
       <c r="F9">
-        <v>0.001052419139082161</v>
+        <v>6.531185730129785E-05</v>
       </c>
       <c r="G9">
-        <v>0.0003714665849312571</v>
+        <v>2.219202599462733E-11</v>
       </c>
       <c r="H9">
-        <v>0.001749950845293613</v>
+        <v>8.475109503081057E-11</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>3.546392238540363E-06</v>
+        <v>7.014414204364883E-06</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1045,28 +1045,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.00158499396387457</v>
+        <v>0.1024612734459147</v>
       </c>
       <c r="C10">
-        <v>1.034986377601577E-05</v>
+        <v>6.779310295357277E-06</v>
       </c>
       <c r="D10">
-        <v>0.0001509441757594487</v>
+        <v>0.04092007173307066</v>
       </c>
       <c r="E10">
-        <v>0.02150528511126648</v>
+        <v>0.06062406869800396</v>
       </c>
       <c r="F10">
-        <v>0.004515794454904132</v>
+        <v>0.01235027300395997</v>
       </c>
       <c r="G10">
-        <v>0.0001017066779649412</v>
+        <v>0.00556058598943876</v>
       </c>
       <c r="H10">
-        <v>2.070888677252469E-05</v>
+        <v>0.002174255340146258</v>
       </c>
       <c r="I10">
-        <v>3.546392238540363E-06</v>
+        <v>7.014414204364883E-06</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -1122,28 +1122,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.593367205243904</v>
+        <v>4.471066301906473</v>
       </c>
       <c r="D2">
-        <v>2.016758463553398</v>
+        <v>2.102283129642703</v>
       </c>
       <c r="E2">
-        <v>-0.1569009666880324</v>
+        <v>1.999480556495848</v>
       </c>
       <c r="F2">
-        <v>-2.322271272397697</v>
+        <v>-3.19762476788951</v>
       </c>
       <c r="G2">
-        <v>2.266929464161431</v>
+        <v>2.654548808281701</v>
       </c>
       <c r="H2">
-        <v>2.057958695998135</v>
+        <v>2.879271234775838</v>
       </c>
       <c r="I2">
-        <v>3.490981334899089</v>
+        <v>4.371523015503803</v>
       </c>
       <c r="J2">
-        <v>-3.90534497573406</v>
+        <v>1.704028031835939</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1151,31 +1151,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-3.593367205243904</v>
+        <v>-4.471066301906473</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-11.26344311137905</v>
+        <v>-10.84122959785615</v>
       </c>
       <c r="E3">
-        <v>-5.008699651420917</v>
+        <v>-11.12976638391012</v>
       </c>
       <c r="F3">
-        <v>-4.240162507776755</v>
+        <v>-4.962172084118631</v>
       </c>
       <c r="G3">
-        <v>-14.89742288847779</v>
+        <v>-11.09029652760391</v>
       </c>
       <c r="H3">
-        <v>-3.093439107043003</v>
+        <v>-10.45592054342706</v>
       </c>
       <c r="I3">
-        <v>-1.786009743879899</v>
+        <v>-4.773452202622225</v>
       </c>
       <c r="J3">
-        <v>-6.685270321837844</v>
+        <v>-5.858879825066452</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1183,31 +1183,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-2.016758463553398</v>
+        <v>-2.102283129642703</v>
       </c>
       <c r="C4">
-        <v>11.26344311137905</v>
+        <v>10.84122959785615</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-2.913647615358556</v>
+        <v>-6.846784889906652</v>
       </c>
       <c r="F4">
-        <v>-2.566549154297781</v>
+        <v>-2.646866939488329</v>
       </c>
       <c r="G4">
-        <v>2.559242055746841</v>
+        <v>2.186832709018246</v>
       </c>
       <c r="H4">
-        <v>0.1454368416638841</v>
+        <v>3.176768442540805</v>
       </c>
       <c r="I4">
-        <v>5.257615734743519</v>
+        <v>10.74271830420776</v>
       </c>
       <c r="J4">
-        <v>-5.137406866703439</v>
+        <v>-2.171890010718963</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1215,31 +1215,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1569009666880324</v>
+        <v>-1.999480556495848</v>
       </c>
       <c r="C5">
-        <v>5.008699651420917</v>
+        <v>11.12976638391012</v>
       </c>
       <c r="D5">
-        <v>2.913647615358556</v>
+        <v>6.846784889906652</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>-0.1628815469449042</v>
+        <v>-2.54515168874278</v>
       </c>
       <c r="G5">
-        <v>3.2742659462375</v>
+        <v>2.724587572532161</v>
       </c>
       <c r="H5">
-        <v>2.603477106957986</v>
+        <v>3.747977255789706</v>
       </c>
       <c r="I5">
-        <v>4.351128903042748</v>
+        <v>11.14254564033996</v>
       </c>
       <c r="J5">
-        <v>-2.587223037225212</v>
+        <v>-1.9776932472437</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1247,31 +1247,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.322271272397697</v>
+        <v>3.19762476788951</v>
       </c>
       <c r="C6">
-        <v>4.240162507776755</v>
+        <v>4.962172084118631</v>
       </c>
       <c r="D6">
-        <v>2.566549154297781</v>
+        <v>2.646866939488329</v>
       </c>
       <c r="E6">
-        <v>0.1628815469449042</v>
+        <v>2.54515168874278</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.815795919678759</v>
+        <v>3.238116776864633</v>
       </c>
       <c r="H6">
-        <v>2.476984868151872</v>
+        <v>3.448423048280682</v>
       </c>
       <c r="I6">
-        <v>4.114261134156737</v>
+        <v>4.911361955784544</v>
       </c>
       <c r="J6">
-        <v>-3.376890254670051</v>
+        <v>2.725493854292729</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1279,31 +1279,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-2.266929464161431</v>
+        <v>-2.654548808281701</v>
       </c>
       <c r="C7">
-        <v>14.89742288847779</v>
+        <v>11.09029652760391</v>
       </c>
       <c r="D7">
-        <v>-2.559242055746841</v>
+        <v>-2.186832709018246</v>
       </c>
       <c r="E7">
-        <v>-3.2742659462375</v>
+        <v>-2.724587572532161</v>
       </c>
       <c r="F7">
-        <v>-2.815795919678759</v>
+        <v>-3.238116776864633</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>-0.4779683691676688</v>
+        <v>2.778770626241066</v>
       </c>
       <c r="I7">
-        <v>4.655109045308502</v>
+        <v>12.36848301978341</v>
       </c>
       <c r="J7">
-        <v>-5.354049854343729</v>
+        <v>-3.073352011036924</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1311,31 +1311,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>-2.057958695998135</v>
+        <v>-2.879271234775838</v>
       </c>
       <c r="C8">
-        <v>3.093439107043003</v>
+        <v>10.45592054342706</v>
       </c>
       <c r="D8">
-        <v>-0.1454368416638841</v>
+        <v>-3.176768442540805</v>
       </c>
       <c r="E8">
-        <v>-2.603477106957986</v>
+        <v>-3.747977255789706</v>
       </c>
       <c r="F8">
-        <v>-2.476984868151872</v>
+        <v>-3.448423048280682</v>
       </c>
       <c r="G8">
-        <v>0.4779683691676688</v>
+        <v>-2.778770626241066</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>3.855075240048511</v>
+        <v>11.53388117197236</v>
       </c>
       <c r="J8">
-        <v>-6.265829665091724</v>
+        <v>-3.470148879632583</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1343,31 +1343,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>-3.490981334899089</v>
+        <v>-4.371523015503803</v>
       </c>
       <c r="C9">
-        <v>1.786009743879899</v>
+        <v>4.773452202622225</v>
       </c>
       <c r="D9">
-        <v>-5.257615734743519</v>
+        <v>-10.74271830420776</v>
       </c>
       <c r="E9">
-        <v>-4.351128903042748</v>
+        <v>-11.14254564033996</v>
       </c>
       <c r="F9">
-        <v>-4.114261134156737</v>
+        <v>-4.911361955784544</v>
       </c>
       <c r="G9">
-        <v>-4.655109045308502</v>
+        <v>-12.36848301978341</v>
       </c>
       <c r="H9">
-        <v>-3.855075240048511</v>
+        <v>-11.53388117197236</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>-7.363353033300883</v>
+        <v>-5.844358054320792</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1375,28 +1375,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.90534497573406</v>
+        <v>-1.704028031835939</v>
       </c>
       <c r="C10">
-        <v>6.685270321837844</v>
+        <v>5.858879825066452</v>
       </c>
       <c r="D10">
-        <v>5.137406866703439</v>
+        <v>2.171890010718963</v>
       </c>
       <c r="E10">
-        <v>2.587223037225212</v>
+        <v>1.9776932472437</v>
       </c>
       <c r="F10">
-        <v>3.376890254670051</v>
+        <v>-2.725493854292729</v>
       </c>
       <c r="G10">
-        <v>5.354049854343729</v>
+        <v>3.073352011036924</v>
       </c>
       <c r="H10">
-        <v>6.265829665091724</v>
+        <v>3.470148879632583</v>
       </c>
       <c r="I10">
-        <v>7.363353033300883</v>
+        <v>5.844358054320792</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1440,19 +1440,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>62.5</v>
+        <v>100</v>
       </c>
       <c r="F2">
-        <v>0.5443559566891729</v>
+        <v>0.5470265175823418</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1460,19 +1460,19 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>62.5</v>
+        <v>87.5</v>
       </c>
       <c r="F3">
-        <v>0.5863127492277844</v>
+        <v>0.5765090202033768</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1483,21 +1483,21 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>12.5</v>
       </c>
       <c r="F4">
-        <v>0.7088885641266924</v>
+        <v>0.7101060143950403</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1512,47 +1512,47 @@
         <v>12.5</v>
       </c>
       <c r="F5">
-        <v>0.6855824995996065</v>
+        <v>0.7588713370947083</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7162379957586388</v>
+        <v>0.9049089908192756</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.901649210121425</v>
+        <v>0.9382087515359209</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1563,21 +1563,21 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9166687430696712</v>
+        <v>0.767009095795083</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1592,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9314596835305174</v>
+        <v>0.725594723202131</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1603,16 +1603,16 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.107034227071176</v>
+        <v>0.8417150343062385</v>
       </c>
     </row>
   </sheetData>
